--- a/biology/Médecine/Gestion_des_anti-infectieux/Gestion_des_anti-infectieux.xlsx
+++ b/biology/Médecine/Gestion_des_anti-infectieux/Gestion_des_anti-infectieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gestion des anti-infectieux ou bon usage des anti-infectieux est l’effort systématique afin d'éduquer les prescripteurs d'anti-infectieux à mieux utiliser ces agents afin de lutter contre la résistance aux antibiotiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gestion des anti-infectieux ou bon usage des anti-infectieux est l’effort systématique afin d'éduquer les prescripteurs d'anti-infectieux à mieux utiliser ces agents afin de lutter contre la résistance aux antibiotiques.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon la définition de 2007 de la Society for Healthcare Epidemiology of America (SHEA), la gestion des anti-infectieux est un « ensemble de stratégies coordonnées visant à améliorer l’utilisation des médicaments anti-infectieux » dans le but de : 
 améliorer la santé des patients  ;
 réduire la résistance aux antibiotiques ;
-réduire les coûts inutiles[2].</t>
+réduire les coûts inutiles.</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'utilisation abusive d'antimicrobiens a été reconnue dès les années 1940, lorsque Alexander Fleming a fait remarquer que l'efficacité de la pénicilline diminuait en raison de son utilisation excessive[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation abusive d'antimicrobiens a été reconnue dès les années 1940, lorsque Alexander Fleming a fait remarquer que l'efficacité de la pénicilline diminuait en raison de son utilisation excessive.
 </t>
         </is>
       </c>
